--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -366,10 +367,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -377,6 +378,11 @@
     <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -388,4 +394,27 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -21,7 +21,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -80,6 +95,9 @@
       </rPr>
       <t xml:space="preserve">text</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">something</t>
   </si>
 </sst>
 </file>
@@ -175,8 +193,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,21 +389,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.9"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1245237</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f aca="false">IF(AND($A2&lt;&gt;"",$B2&lt;&gt;"",$D2&lt;&gt;""),"Filled","Not filled")</f>
+        <v>Filled</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>42</v>
       </c>
     </row>

--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Text</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve">something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The same</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a table</t>
   </si>
 </sst>
 </file>
@@ -392,14 +398,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,8 +444,21 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>42</v>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4534567</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f aca="false">IF(AND($A3&lt;&gt;"",$B3&lt;&gt;"",$D3&lt;&gt;""),"Filled","Not filled")</f>
+        <v>Filled</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">The same</t>
   </si>
   <si>
-    <t xml:space="preserve"> a table</t>
+    <t xml:space="preserve">a table</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -447,7 +447,7 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>4534567</v>
       </c>
       <c r="C3" s="1" t="s">

--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">Text</t>
   </si>
@@ -398,7 +398,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -480,11 +480,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
